--- a/Kicad/ElectronULA - Core Carrier Board/BOM.xlsx
+++ b/Kicad/ElectronULA - Core Carrier Board/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kiCAD\Projects\ElectronULA - Core Carrier Board V1.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ElectronULA\Kicad\ElectronULA - Core Carrier Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Item</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Electron ULA Core Carrier Board BOM</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -532,6 +537,11 @@
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">

--- a/Kicad/ElectronULA - Core Carrier Board/BOM.xlsx
+++ b/Kicad/ElectronULA - Core Carrier Board/BOM.xlsx
@@ -161,7 +161,7 @@
     <t>Electron ULA Core Carrier Board BOM</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>This is a test</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
     </row>
